--- a/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1732CFD-C735-4C15-B29F-6A83501E5514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCA1246-E671-4547-BBAB-51F87AC72B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E86AD679-B041-4021-8653-86BD22282C6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C1B76D6-E68B-484D-B40D-F7325553309E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>3,01%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,13%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>96,99%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,27%</t>
+    <t>98,32%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -122,55 +122,55 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -179,55 +179,55 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -236,55 +236,55 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -293,55 +293,55 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -350,79 +350,79 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>7,2%</t>
@@ -431,19 +431,19 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -452,7 +452,7 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>93,85%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA67517-0B8D-494F-A4AC-DD35BFD97C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1757D-1458-4E11-9A8C-562D035B4678}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCA1246-E671-4547-BBAB-51F87AC72B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F959365D-16BF-457D-8A1C-C9BE758B36E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C1B76D6-E68B-484D-B40D-F7325553309E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12B1DD6D-590B-4929-944D-55DF35C28C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1757D-1458-4E11-9A8C-562D035B4678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910014A0-BD8F-46C1-87E3-5B4FEA7FB57C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F959365D-16BF-457D-8A1C-C9BE758B36E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF1ED65-7B44-4318-9281-F5DCFB77B83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12B1DD6D-590B-4929-944D-55DF35C28C9B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDECF3A8-A50A-468E-BB6E-C0EC415E4B19}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,01%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,99%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -122,55 +122,55 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -179,112 +179,112 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -293,55 +293,55 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -350,79 +350,79 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,15%</t>
   </si>
   <si>
     <t>7,2%</t>
@@ -431,19 +431,19 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -452,7 +452,7 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>93,93%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910014A0-BD8F-46C1-87E3-5B4FEA7FB57C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80D02F5-5D9C-47C6-9B3A-E0FC56D09E19}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF1ED65-7B44-4318-9281-F5DCFB77B83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F74CAD-4D5E-40DB-9998-8FB6745B34C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDECF3A8-A50A-468E-BB6E-C0EC415E4B19}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9C86E873-2257-4767-AE08-3E8C4E69028D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
   <si>
     <t>Población con diagnóstico de otro dolor crónico en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,16 +80,16 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,355 +104,400 @@
     <t>100%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,8 +912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80D02F5-5D9C-47C6-9B3A-E0FC56D09E19}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A6D575-BC0A-4C7B-AC63-8BF6D9F1A194}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3088</v>
+        <v>2746</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1018,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>3088</v>
+        <v>2746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1039,7 +1084,7 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1054,7 +1099,7 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>351869</v>
+        <v>310454</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1069,7 +1114,7 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>729548</v>
+        <v>710441</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1090,7 +1135,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1105,7 +1150,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1120,7 +1165,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1143,46 +1188,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6623</v>
+        <v>6721</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>8435</v>
+        <v>7828</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>15057</v>
+        <v>14549</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,46 +1239,46 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>421773</v>
+        <v>416826</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
       </c>
       <c r="I8" s="7">
-        <v>490142</v>
+        <v>503676</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>748</v>
       </c>
       <c r="N8" s="7">
-        <v>911916</v>
+        <v>920502</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1245,7 +1290,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1260,7 +1305,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1275,7 +1320,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1289,7 +1334,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1298,46 +1343,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>19540</v>
+        <v>18614</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>24190</v>
+        <v>22504</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>43730</v>
+        <v>41118</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,46 +1394,46 @@
         <v>526</v>
       </c>
       <c r="D11" s="7">
-        <v>537712</v>
+        <v>517724</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>808</v>
       </c>
       <c r="I11" s="7">
-        <v>558568</v>
+        <v>519295</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1334</v>
       </c>
       <c r="N11" s="7">
-        <v>1096280</v>
+        <v>1037019</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,7 +1445,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1415,7 +1460,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1430,7 +1475,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1444,7 +1489,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1453,46 +1498,46 @@
         <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>34183</v>
+        <v>32679</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>52568</v>
+        <v>48701</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>119</v>
       </c>
       <c r="N13" s="7">
-        <v>86751</v>
+        <v>81380</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,46 +1549,46 @@
         <v>631</v>
       </c>
       <c r="D14" s="7">
-        <v>689807</v>
+        <v>855107</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>1055</v>
       </c>
       <c r="I14" s="7">
-        <v>694286</v>
+        <v>663797</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1686</v>
       </c>
       <c r="N14" s="7">
-        <v>1384093</v>
+        <v>1518905</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,7 +1600,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1570,7 +1615,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1585,7 +1630,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1599,7 +1644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,46 +1653,46 @@
         <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>31582</v>
+        <v>29779</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>66919</v>
+        <v>61253</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
       </c>
       <c r="N16" s="7">
-        <v>98501</v>
+        <v>91032</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,46 +1704,46 @@
         <v>624</v>
       </c>
       <c r="D17" s="7">
-        <v>566460</v>
+        <v>529496</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>889</v>
       </c>
       <c r="I17" s="7">
-        <v>526498</v>
+        <v>483475</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1513</v>
       </c>
       <c r="N17" s="7">
-        <v>1092958</v>
+        <v>1012971</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1755,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598042</v>
+        <v>559275</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1725,7 +1770,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1740,7 +1785,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191459</v>
+        <v>1104003</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1754,55 +1799,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>68399</v>
+        <v>31571</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>101</v>
+      </c>
+      <c r="I19" s="7">
+        <v>47730</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="7">
-        <v>320</v>
-      </c>
-      <c r="I19" s="7">
-        <v>161020</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>151</v>
+      </c>
+      <c r="N19" s="7">
+        <v>79301</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M19" s="7">
-        <v>432</v>
-      </c>
-      <c r="N19" s="7">
-        <v>229419</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,49 +1856,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>914</v>
+        <v>518</v>
       </c>
       <c r="D20" s="7">
-        <v>627797</v>
+        <v>335157</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>725</v>
+      </c>
+      <c r="I20" s="7">
+        <v>560479</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="7">
-        <v>1387</v>
-      </c>
-      <c r="I20" s="7">
-        <v>865458</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1243</v>
+      </c>
+      <c r="N20" s="7">
+        <v>895636</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="7">
-        <v>2301</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1493255</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,10 +1907,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>696196</v>
+        <v>366728</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1877,10 +1922,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026478</v>
+        <v>608209</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1892,10 +1937,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722674</v>
+        <v>974937</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1909,55 +1954,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>160327</v>
+        <v>33364</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>219</v>
+      </c>
+      <c r="I22" s="7">
+        <v>98578</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="7">
-        <v>563</v>
-      </c>
-      <c r="I22" s="7">
-        <v>316220</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>281</v>
+      </c>
+      <c r="N22" s="7">
+        <v>131942</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M22" s="7">
-        <v>771</v>
-      </c>
-      <c r="N22" s="7">
-        <v>476547</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,49 +2011,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3164</v>
+        <v>396</v>
       </c>
       <c r="D23" s="7">
-        <v>3221228</v>
+        <v>249395</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>662</v>
+      </c>
+      <c r="I23" s="7">
+        <v>327253</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="7">
-        <v>4795</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3486820</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1058</v>
+      </c>
+      <c r="N23" s="7">
+        <v>576648</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="7">
-        <v>7959</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6708049</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,63 +2062,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>208</v>
+      </c>
+      <c r="D25" s="7">
+        <v>152728</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="7">
+        <v>563</v>
+      </c>
+      <c r="I25" s="7">
+        <v>289340</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>771</v>
+      </c>
+      <c r="N25" s="7">
+        <v>442068</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3164</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3303694</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4795</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3368428</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7959</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6672122</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3372</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381555</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456422</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803040</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657768</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>8730</v>
       </c>
-      <c r="N24" s="7">
-        <v>7184596</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>139</v>
+      <c r="N27" s="7">
+        <v>7114190</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
